--- a/biology/Botanique/Pooideae/Pooideae.xlsx
+++ b/biology/Botanique/Pooideae/Pooideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pooideae sont une sous-famille de plantes monocotylédones de la famille des Poaceae (graminées). C'est la plus importante sous-famille de graminées avec plus de 4 200 espèces regroupées en 200 genres environ.
 Elle comprend notamment des céréales importantes telles que le blé, l'orge, l'avoine, le seigle et de nombreuses espèces cultivées comme plantes fourragères ou pour créer des pelouses d'agrément.
-On les désigne parfois aux États-Unis comme « graminées de saison fraîche (cool-season grasses), parce qu'elles sont adaptées aux régions de climat tempéré[1].
+On les désigne parfois aux États-Unis comme « graminées de saison fraîche (cool-season grasses), parce qu'elles sont adaptées aux régions de climat tempéré.
 Toutes ces plantes ont une photosynthèse en C3.
-Les Pooideae sont le groupe frère des Bambusoideae au sein du clade BEP, et sont elles-mêmes subdivisées en 14 tribus[1].
+Les Pooideae sont le groupe frère des Bambusoideae au sein du clade BEP, et sont elles-mêmes subdivisées en 14 tribus.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Soreng et al.[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Soreng et al. :
 Agrostidoideae Kunth ex Beilschm. (1833)
 Anthoxanthoideae Link (1827)
 Avenoideae Link (1827)
@@ -557,7 +571,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inflorescences sont des panicules ou des épis. Les épillets ont une ou plusieurs fleurs. Les fleurs sont hermaphrodites. Les glumelles ont habituellement cinq nervures parfois plus. Les lodicules sont triangulaires. La fleur a trois étamines, rarement moins. Les styles sont libres.
 </t>
@@ -588,9 +604,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme, selon une classification phylogénétique de 2015, montrant les relations phylogénétiques entre les tribus de Pooideae, ainsi que la position des bambous comme groupe frère[1],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme, selon une classification phylogénétique de 2015, montrant les relations phylogénétiques entre les tribus de Pooideae, ainsi que la position des bambous comme groupe frère, :
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Julia Schneider et al. (2009)[4] la classification est la suivante :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Julia Schneider et al. (2009) la classification est la suivante :
 </t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Liste des tribus, sous-tribus, genres, espèces, sous-espèces, variétés, formes et non-classés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (8 août 2014)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (8 août 2014) :
 tribu des Ampelodesmeae
 tribu des Brachyelytreae
 tribu des Brachypodieae
@@ -687,7 +709,7 @@
 sous-tribu des Torreyochloinae
 tribu des Stipeae
 tribu des Triticeae
-Selon GRIN            (8 août 2014)[5] :
+Selon GRIN            (8 août 2014) :
 genre Achnatherum P. Beauv.
 genre ×Achnella Barkworth
 genre Aciachne Benth.
